--- a/TAP_POM_Framework/data/TC0035.xlsx
+++ b/TAP_POM_Framework/data/TC0035.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>uname</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Rajravi@1</t>
   </si>
   <si>
-    <t>new Order</t>
-  </si>
-  <si>
     <t>2019-07-24'</t>
   </si>
   <si>
@@ -58,6 +55,15 @@
   </si>
   <si>
     <t>Darkstone</t>
+  </si>
+  <si>
+    <t>orderName</t>
+  </si>
+  <si>
+    <t>new Order99</t>
+  </si>
+  <si>
+    <t>new Order1</t>
   </si>
 </sst>
 </file>
@@ -388,15 +394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,15 +423,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -430,16 +443,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
